--- a/model_templates/ScRNASeqAssayMetadataTemplate.xlsx
+++ b/model_templates/ScRNASeqAssayMetadataTemplate.xlsx
@@ -47879,12 +47879,12 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$H1 = "10x Chromium Fixed RNA Human Transcriptome"</formula>
+      <formula>$H1 = "10x GEM-X Flex Gene Expression Human"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$H1 = "10x GEM-X Flex Gene Expression Human"</formula>
+      <formula>$H1 = "10x Chromium Fixed RNA Human Transcriptome"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">

--- a/model_templates/ScRNASeqAssayMetadataTemplate.xlsx
+++ b/model_templates/ScRNASeqAssayMetadataTemplate.xlsx
@@ -47879,12 +47879,12 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$H1 = "10x GEM-X Flex Gene Expression Human"</formula>
+      <formula>$H1 = "10x Chromium Fixed RNA Human Transcriptome"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$H1 = "10x Chromium Fixed RNA Human Transcriptome"</formula>
+      <formula>$H1 = "10x GEM-X Flex Gene Expression Human"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
